--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,66 +495,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Capture Failed</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cannot shoot panorama</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,66 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Capture Failed</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cannot shoot panorama</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
